--- a/PRODUTOS/Mercearia Salgada/Mercearia Salgada - Atomatados.xlsx
+++ b/PRODUTOS/Mercearia Salgada/Mercearia Salgada - Atomatados.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Molho De Tomate Mamma D`oro Cepera 300g Tradicional</t>
+          <t>Passata Di Pomodoro Obra Prima 680g</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3f74c90b-93af-49a1-8b35-5f7f464f8032.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/efce0f60-a4f2-4f70-89fe-e01f515ff22e.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7898960497038</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Molho De Tomate Tradicional Predilecta Sachê 300g</t>
+          <t>Molho De Tomate Quero Sch 1020gr Trad</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 1,89</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dbebc7bc-2503-4271-9295-dcde6e0e4d53.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/68d62878-97e9-4828-8f7b-dad858de058f.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7896102504361</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Molho De Tomate Pomarola Tradicional Sachê 300g</t>
+          <t>Extrato De Tomate Quero Sache 300gr</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/973f90b5-d5f2-4bd4-9f24-5b57e859368b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fab60de0-a2ff-4a78-8da3-b69b692fcee6.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7896102502008</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Tomate Pelado Em Cubos Ole 240g</t>
+          <t>Molho Pomarola Caseiro 300gr Manjeriçao</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/10c6ece6-67e4-4557-9756-bb4476d5cd97.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b2ba70b2-f274-4c68-aee4-3bd927910f46.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896036096079</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tomate Pelado Inteiro Ole 240g</t>
+          <t>Polpa De Tomate Paganini Vidro 690g Tradicional</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5b12ced4-4ae0-4d2f-b74b-e5d9ee597fdc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d559a166-c0b3-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7898152990040</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Extrato Tomate Elefante 300g Pt Trad</t>
+          <t>Molho Madeira Cepera Vidro 320g</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 8,49</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0d64e2e8-7592-453a-b4b8-e81b98611e79.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/055d5bfa-a1ae-4d66-9d1c-d316304696b9.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896025804630</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Molho Quero Sch 240g Tradicional</t>
+          <t>Extrato Tomate Elefante 300g Pt Trad</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 2,29</t>
+          <t>R$ 8,49</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a3a3fc66-6126-4f64-a26d-573e8a6081dd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0d64e2e8-7592-453a-b4b8-e81b98611e79.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896036000724</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Molho De Tomate Ole Sch 300g Tradicional</t>
+          <t>Extrato De Tomate Elefante 300g Só Tomate</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0b859d3b-2dd0-43bb-a458-f09da153f1f9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7df0b33d-21c3-42f3-866d-03585deebcd9.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896036000724</t>
         </is>
       </c>
     </row>
@@ -677,7 +722,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Molho Tarantella Sache 300g Tradicional</t>
+          <t>Molho Pronto Salsaretti Sache 300g Tradicional</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -687,7 +732,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/adc1fe29-4013-4184-ae6d-43d213c77120.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3d0f80da-c87b-44dd-8dc2-5f018a6adb38.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7898930142661</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Molho Pronto Salsaretti Sache 300g Tradicional</t>
+          <t>Extrato De Tomate Elefante 190g</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3d0f80da-c87b-44dd-8dc2-5f018a6adb38.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6a6b0180-50d3-4ef4-9f7f-e09425646206.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7896036000724</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Polpa Pomodoro Cica 520g</t>
+          <t>Molho Quero Sch 240g Tradicional</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 2,29</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/52eae66a-dc82-4ddf-9a69-038db58daf0c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a3a3fc66-6126-4f64-a26d-573e8a6081dd.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7896102503692</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Molho Pomarola Tradicional Tp 520gr</t>
+          <t>Molho Pomarola Caseiro Sache 300g Trad</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/018c4c65-7268-4b7e-bcce-380869ca1ae9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e59a96b2-5ab7-4a8a-b350-14413857f1ec.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7896036036051</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Extrato De Tomate Elefante 300g Só Tomate</t>
+          <t>Molho Pomarola Tradicional Tp 520gr</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 6,49</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7df0b33d-21c3-42f3-866d-03585deebcd9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/018c4c65-7268-4b7e-bcce-380869ca1ae9.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7896036095102</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Molho Pomarola Tp 260gr</t>
+          <t>Extrato De Tomate Quero Tp 1,080kg</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d182517e-bc1f-4728-b11c-8c54d7fa098e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/49cc9791-3e50-4055-ae54-0036ee2746f3.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7896102502428</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Molho Pomarola Caseiro 300gr Manjeriçao</t>
+          <t>Molho Pomarola Tp 260gr</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b2ba70b2-f274-4c68-aee4-3bd927910f46.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d182517e-bc1f-4728-b11c-8c54d7fa098e.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7896036095096</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Molho De Tomate Pomarola Pizza 300g</t>
+          <t>Extrato De Tomate Elefante 130gr</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ca793b43-c9be-41c8-bba1-0f8390e105f4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a7bc92cc-a7ef-4012-96d4-cddb1fd2322b.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7896036000724</t>
         </is>
       </c>
     </row>
@@ -893,7 +978,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Molho Pomarola Caseiro Sache 300g Trad</t>
+          <t>Molho Pomarola Caseiro 300gr Alho/azei</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -903,7 +988,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e59a96b2-5ab7-4a8a-b350-14413857f1ec.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f07e56ab-1d61-4b6f-ac59-313983b5c84f.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7896036096062</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Passata Tradicional Cirio Vidro 700g</t>
+          <t>Molho Pomarola 300gr Bolonhesa</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 17,49</t>
+          <t>R$ 5,29</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/de20415b-487d-40eb-9a4d-3d595d7151ba.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9c6470a7-0a31-4526-948d-5cd32ebe0853.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7896036095126</t>
         </is>
       </c>
     </row>
@@ -947,530 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Extrato De Tomate Quero Tp 1,080kg</t>
+          <t>Extrato De Tomate Quero Sch 1,020kg</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/49cc9791-3e50-4055-ae54-0036ee2746f3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Atomatados</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Extrato De Tomate Elefante 130gr</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a7bc92cc-a7ef-4012-96d4-cddb1fd2322b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Atomatados</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Molho Pomarola 300gr Bolonhesa</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>R$ 5,29</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9c6470a7-0a31-4526-948d-5cd32ebe0853.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Atomatados</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Molho De Tomate Quero Sch 1020gr Trad</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/68d62878-97e9-4828-8f7b-dad858de058f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Atomatados</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Extrato De Tomate Quero Sache 300gr</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fab60de0-a2ff-4a78-8da3-b69b692fcee6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Atomatados</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Tomate Pelado Cirio Lata 400g</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f30c0bf0-85d5-4954-b8e1-c874b288a7be.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Atomatados</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Molho Pomarola Caseiro 300gr Alho/azei</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f07e56ab-1d61-4b6f-ac59-313983b5c84f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Atomatados</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Pomodori Italiano La Pastina 400g Cubos</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b708409f-9fbe-4384-bcb1-5fd4f36ea0a5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Atomatados</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Extrato De Tomate Elefante 190g</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6a6b0180-50d3-4ef4-9f7f-e09425646206.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Atomatados</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Pomodori Italiano La Pastina 400g Inteir</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7cacb909-003c-48b9-aa08-836ebb80f9d6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Atomatados</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Pomodori Cubetti La Pastina 400g Organico</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>R$ 18,99</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1f0dc3f5-46aa-4330-92b4-b08156ae5b2d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Atomatados</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Passata Di Pomodoro Obra Prima 680g</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/efce0f60-a4f2-4f70-89fe-e01f515ff22e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Atomatados</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Extrato De Tomate Quero Sch 1,020kg</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/130082db-df8b-4353-b8c5-33afd17f157b.jpg</t>
         </is>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Atomatados</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Molho Pomarola Receit Parmegiana 300g</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>R$ 4,49</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6391ed22-13d4-4f85-a010-0053d5723fa4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Atomatados</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Pomodori Pelati Divella 400g</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/742fdc48-5731-48f5-b7e2-db4f718ec833.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Atomatados</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Molho La Pastina Pesto A Genovese 180g</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>R$ 29,99</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/75f682b5-2e2b-4e87-bc77-ff371e4a19bf.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Atomatados</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Polpa De Tomate Paganini Vidro 690g Tradicional</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d559a166-c0b3-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Atomatados</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Molho Madeira Cepera Vidro 320g</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/055d5bfa-a1ae-4d66-9d1c-d316304696b9.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Atomatados</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Pomodori Cubetti Paganini 400g</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/caee8c98-c0b3-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Atomatados</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Pomodori Pelati Paganini 400g</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eac108af-4580-47b1-b6f1-a42a27794d1c.jpg</t>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7896102502428</t>
         </is>
       </c>
     </row>
